--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2074A2DA-967F-E047-95AA-25D5DC6542A0}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-14100" windowWidth="33600" windowHeight="14100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16180" windowWidth="51200" windowHeight="15740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -45,7 +46,7 @@
     <definedName name="ws">'#system'!$T$2:$T$16</definedName>
     <definedName name="xml">'#system'!$U$2:$U$11</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3643,15 +3644,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="34.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="50.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{2074A2DA-967F-E047-95AA-25D5DC6542A0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15740" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16180" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15740" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16180"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -38,14 +38,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$22</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="469">
   <si>
     <t>jira</t>
   </si>
@@ -1483,13 +1484,46 @@
   <si>
     <t>validate(prompt,responses,passResponses)</t>
   </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1649,8 +1683,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,8 +1898,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2021,6 +2250,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2028,7 +2451,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2161,40 +2584,76 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2639,9 +3098,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2697,24 +3156,27 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q1" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>454</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2765,24 +3227,27 @@
         <v>222</v>
       </c>
       <c r="P2" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q2" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>455</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>100</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>175</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>180</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>187</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2830,24 +3295,27 @@
         <v>223</v>
       </c>
       <c r="P3" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q3" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>456</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>101</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>371</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2892,24 +3360,27 @@
         <v>224</v>
       </c>
       <c r="P4" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q4" t="s">
         <v>365</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>457</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>359</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>188</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2948,21 +3419,24 @@
         <v>225</v>
       </c>
       <c r="P5" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q5" t="s">
         <v>366</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>183</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>189</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2998,21 +3472,24 @@
         <v>398</v>
       </c>
       <c r="P6" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q6" t="s">
         <v>368</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>179</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>184</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>190</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3045,18 +3522,21 @@
         <v>249</v>
       </c>
       <c r="P7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q7" t="s">
         <v>367</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>191</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3089,18 +3569,21 @@
         <v>250</v>
       </c>
       <c r="P8" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q8" t="s">
         <v>369</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>186</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>192</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3130,15 +3613,18 @@
         <v>251</v>
       </c>
       <c r="P9" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q9" t="s">
         <v>370</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>214</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>193</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3164,13 +3650,16 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>468</v>
+      </c>
+      <c r="S10" t="s">
         <v>262</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>194</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3196,13 +3685,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>263</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>264</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3225,10 +3714,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3251,10 +3740,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>331</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3277,10 +3766,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>106</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3300,16 +3789,16 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>107</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3323,16 +3812,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>78</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -3343,13 +3832,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -3360,13 +3849,13 @@
       <c r="I18" t="s">
         <v>405</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -3377,13 +3866,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -3394,13 +3883,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3411,13 +3900,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>230</v>
@@ -3425,18 +3914,21 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3447,7 +3939,7 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3458,7 +3950,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3469,7 +3961,7 @@
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3480,7 +3972,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3491,7 +3983,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3502,7 +3994,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3513,7 +4005,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3524,7 +4016,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3532,7 +4024,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3540,7 +4032,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3548,7 +4040,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3556,7 +4048,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3564,7 +4056,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3572,7 +4064,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3580,7 +4072,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3588,7 +4080,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3596,7 +4088,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3604,7 +4096,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3612,7 +4104,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3620,7 +4112,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3628,7 +4120,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3636,7 +4128,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3644,7 +4136,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3652,7 +4144,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3660,7 +4152,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3668,7 +4160,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3676,7 +4168,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3684,412 +4176,409 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>362</v>
-      </c>
-      <c r="R52" t="s">
+        <v>336</v>
+      </c>
+      <c r="S52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>363</v>
-      </c>
-      <c r="R53" t="s">
+        <v>273</v>
+      </c>
+      <c r="S53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="R54" t="s">
+        <v>297</v>
+      </c>
+      <c r="S54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="R55" t="s">
+        <v>298</v>
+      </c>
+      <c r="S55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="R56" t="s">
+        <v>299</v>
+      </c>
+      <c r="S56" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
-      </c>
-      <c r="R57" t="s">
+        <v>308</v>
+      </c>
+      <c r="S57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="R58" t="s">
+        <v>317</v>
+      </c>
+      <c r="S58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="R59" t="s">
+        <v>342</v>
+      </c>
+      <c r="S59" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
-      </c>
-      <c r="R60" t="s">
+        <v>314</v>
+      </c>
+      <c r="S60" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>342</v>
-      </c>
-      <c r="R61" t="s">
+        <v>315</v>
+      </c>
+      <c r="S61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
-      </c>
-      <c r="R62" t="s">
+        <v>376</v>
+      </c>
+      <c r="S62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="R63" t="s">
+        <v>377</v>
+      </c>
+      <c r="S63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="R64" t="s">
+        <v>350</v>
+      </c>
+      <c r="S64" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="R65" t="s">
+        <v>318</v>
+      </c>
+      <c r="S65" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>350</v>
-      </c>
-      <c r="R66" t="s">
+        <v>274</v>
+      </c>
+      <c r="S66" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="R67" t="s">
+        <v>358</v>
+      </c>
+      <c r="S67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
-      </c>
-      <c r="R68" t="s">
+        <v>319</v>
+      </c>
+      <c r="S68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="R69" t="s">
+        <v>309</v>
+      </c>
+      <c r="S69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="R70" t="s">
+        <v>459</v>
+      </c>
+      <c r="S70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="R71" t="s">
+        <v>267</v>
+      </c>
+      <c r="S71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>267</v>
-      </c>
-      <c r="R72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>349</v>
-      </c>
-      <c r="R73" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="R74" t="s">
+        <v>291</v>
+      </c>
+      <c r="S74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>291</v>
-      </c>
-      <c r="R75" t="s">
+        <v>296</v>
+      </c>
+      <c r="S75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>296</v>
-      </c>
-      <c r="R76" t="s">
+        <v>337</v>
+      </c>
+      <c r="S76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="R77" t="s">
+        <v>275</v>
+      </c>
+      <c r="S77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="R78" t="s">
+        <v>286</v>
+      </c>
+      <c r="S78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="R79" t="s">
+        <v>292</v>
+      </c>
+      <c r="S79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="R80" t="s">
+        <v>281</v>
+      </c>
+      <c r="S80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="R81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="R82" t="s">
+        <v>293</v>
+      </c>
+      <c r="S82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="R83" t="s">
+        <v>277</v>
+      </c>
+      <c r="S83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="R84" t="s">
+        <v>278</v>
+      </c>
+      <c r="S84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="R85" t="s">
+        <v>310</v>
+      </c>
+      <c r="S85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="R86" t="s">
+        <v>316</v>
+      </c>
+      <c r="S86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="R87" t="s">
+        <v>300</v>
+      </c>
+      <c r="S87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="R88" t="s">
+        <v>345</v>
+      </c>
+      <c r="S88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="R89" t="s">
+        <v>282</v>
+      </c>
+      <c r="S89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="R90" t="s">
+        <v>283</v>
+      </c>
+      <c r="S90" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
-        <v>283</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -15690,7 +16179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6FA3C-2CC0-E942-9A15-8683ABE6A7E7}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -32386,7 +32875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA0747-1280-7544-A746-34C71C19E846}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -20,11 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -37,16 +37,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="477">
   <si>
     <t>jira</t>
   </si>
@@ -1517,13 +1518,37 @@
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1759,8 +1784,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2017,8 +2118,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2444,6 +2664,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2451,7 +2865,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2620,40 +3034,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3098,7 +3548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3159,24 +3609,27 @@
         <v>458</v>
       </c>
       <c r="Q1" t="s">
+        <v>469</v>
+      </c>
+      <c r="R1" t="s">
         <v>364</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>454</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3215,10 +3668,10 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>472</v>
       </c>
       <c r="M2" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -3230,24 +3683,27 @@
         <v>460</v>
       </c>
       <c r="Q2" t="s">
+        <v>475</v>
+      </c>
+      <c r="R2" t="s">
         <v>388</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>455</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3298,24 +3754,27 @@
         <v>461</v>
       </c>
       <c r="Q3" t="s">
+        <v>476</v>
+      </c>
+      <c r="R3" t="s">
         <v>389</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>456</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>371</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3362,25 +3821,25 @@
       <c r="P4" t="s">
         <v>462</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>365</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>457</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3421,22 +3880,22 @@
       <c r="P5" t="s">
         <v>463</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>366</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>189</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3474,22 +3933,22 @@
       <c r="P6" t="s">
         <v>464</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>368</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>190</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3521,22 +3980,25 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
+      <c r="O7" t="s">
+        <v>474</v>
+      </c>
       <c r="P7" t="s">
         <v>465</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>367</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>191</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3571,19 +4033,19 @@
       <c r="P8" t="s">
         <v>466</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>369</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>192</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3615,16 +4077,16 @@
       <c r="P9" t="s">
         <v>467</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>370</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>214</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>193</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3653,13 +4115,13 @@
       <c r="P10" t="s">
         <v>468</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>262</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>194</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3685,13 +4147,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3714,10 +4176,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3740,10 +4202,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>331</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3766,10 +4228,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3789,10 +4251,10 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3801,7 +4263,7 @@
         <v>458</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>470</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -3812,19 +4274,19 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -3832,16 +4294,16 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -3849,16 +4311,16 @@
       <c r="I18" t="s">
         <v>405</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -3866,16 +4328,16 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -3883,16 +4345,16 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -3900,131 +4362,137 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4032,7 +4500,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4040,7 +4508,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4048,7 +4516,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4056,7 +4524,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4064,7 +4532,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4072,7 +4540,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4080,7 +4548,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4088,7 +4556,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4096,7 +4564,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4104,7 +4572,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4112,7 +4580,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4120,7 +4588,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4128,7 +4596,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4136,7 +4604,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4144,7 +4612,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4152,7 +4620,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4160,7 +4628,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4168,7 +4636,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4176,7 +4644,7 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4184,7 +4652,7 @@
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4192,7 +4660,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4200,7 +4668,7 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4208,7 +4676,7 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4216,7 +4684,7 @@
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4224,7 +4692,7 @@
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4232,7 +4700,7 @@
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4240,7 +4708,7 @@
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4248,7 +4716,7 @@
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4256,7 +4724,7 @@
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4264,7 +4732,7 @@
       <c r="E62" t="s">
         <v>376</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4272,7 +4740,7 @@
       <c r="E63" t="s">
         <v>377</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4280,7 +4748,7 @@
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4288,7 +4756,7 @@
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4296,7 +4764,7 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4304,7 +4772,7 @@
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4312,273 +4780,276 @@
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="S69" t="s">
+        <v>471</v>
+      </c>
+      <c r="T69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>459</v>
-      </c>
-      <c r="S70" t="s">
+        <v>309</v>
+      </c>
+      <c r="T70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>267</v>
-      </c>
-      <c r="S71" t="s">
+        <v>459</v>
+      </c>
+      <c r="T71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>349</v>
-      </c>
-      <c r="S72" t="s">
+        <v>267</v>
+      </c>
+      <c r="T72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>285</v>
-      </c>
-      <c r="S73" t="s">
+        <v>349</v>
+      </c>
+      <c r="T73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>291</v>
-      </c>
-      <c r="S74" t="s">
+        <v>285</v>
+      </c>
+      <c r="T74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>296</v>
-      </c>
-      <c r="S75" t="s">
+        <v>291</v>
+      </c>
+      <c r="T75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>337</v>
-      </c>
-      <c r="S76" t="s">
+        <v>296</v>
+      </c>
+      <c r="T76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>275</v>
-      </c>
-      <c r="S77" t="s">
+        <v>337</v>
+      </c>
+      <c r="T77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>286</v>
-      </c>
-      <c r="S78" t="s">
+        <v>275</v>
+      </c>
+      <c r="T78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>292</v>
-      </c>
-      <c r="S79" t="s">
+        <v>286</v>
+      </c>
+      <c r="T79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>281</v>
-      </c>
-      <c r="S80" t="s">
+        <v>292</v>
+      </c>
+      <c r="T80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>276</v>
-      </c>
-      <c r="S81" t="s">
+        <v>281</v>
+      </c>
+      <c r="T81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="S82" t="s">
+        <v>276</v>
+      </c>
+      <c r="T82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>277</v>
-      </c>
-      <c r="S83" t="s">
+        <v>293</v>
+      </c>
+      <c r="T83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>278</v>
-      </c>
-      <c r="S84" t="s">
+        <v>277</v>
+      </c>
+      <c r="T84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>310</v>
-      </c>
-      <c r="S85" t="s">
+        <v>278</v>
+      </c>
+      <c r="T85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>316</v>
-      </c>
-      <c r="S86" t="s">
+        <v>310</v>
+      </c>
+      <c r="T86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>300</v>
-      </c>
-      <c r="S87" t="s">
+        <v>316</v>
+      </c>
+      <c r="T87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>345</v>
-      </c>
-      <c r="S88" t="s">
+        <v>300</v>
+      </c>
+      <c r="T88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>282</v>
-      </c>
-      <c r="S89" t="s">
+        <v>345</v>
+      </c>
+      <c r="T89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
+        <v>282</v>
+      </c>
+      <c r="T90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="S90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4818,7 +5289,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>408</v>
@@ -16464,7 +16935,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>408</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2074A2DA-967F-E047-95AA-25D5DC6542A0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4D25E358-A019-E945-9B49-CE341F7752F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15740" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16180"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -38,21 +38,26 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$24</definedName>
     <definedName name="web">'#system'!$T$2:$T$108</definedName>
     <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,13 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="477">
-  <si>
-    <t>jira</t>
-  </si>
-  <si>
-    <t>zephyr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -667,9 +666,6 @@
     <t>mail</t>
   </si>
   <si>
-    <t>send(to,subject,body)</t>
-  </si>
-  <si>
     <t>open(url)</t>
   </si>
   <si>
@@ -1150,12 +1146,6 @@
     <t>getRowCount(var)</t>
   </si>
   <si>
-    <t>getTableRows(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>getTableRowsAll(var)</t>
-  </si>
-  <si>
     <t>ssh</t>
   </si>
   <si>
@@ -1285,9 +1275,6 @@
     <t>assertTextNotPresent(text)</t>
   </si>
   <si>
-    <t>assertBetween(num,lower,upper)</t>
-  </si>
-  <si>
     <t>${response}.returnCode</t>
   </si>
   <si>
@@ -1316,9 +1303,6 @@
   </si>
   <si>
     <t>${response}.body</t>
-  </si>
-  <si>
-    <t>400</t>
   </si>
   <si>
     <t>"Name":"${Name}"</t>
@@ -1537,10 +1521,28 @@
     <t>saveResults(db,sqls,outputDir)</t>
   </si>
   <si>
-    <t>lazer(repeats)</t>
+    <t>laser(repeats)</t>
   </si>
   <si>
-    <t>warp(repeats)</t>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>automike</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>${target url 2}</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1550,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1646,155 +1648,21 @@
       <u val="none"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
       <name val="Tahoma"/>
       <sz val="11.0"/>
       <color rgb="287389"/>
       <u val="none"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
       <u val="none"/>
     </font>
     <font>
       <name val="Consolas"/>
       <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
       <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
       <u val="none"/>
     </font>
     <font>
@@ -1861,7 +1729,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1899,240 +1767,36 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -2238,7 +1902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2342,7 +2006,7 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin"/>
     </border>
@@ -2350,43 +2014,43 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </left>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </left>
       <right style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </right>
       <top style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </top>
       <bottom style="thin">
-        <color rgb="DCDCDC"/>
+        <color rgb="BEC8CD"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin"/>
     </border>
@@ -2394,336 +2058,36 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </left>
       <right style="thin"/>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </left>
       <right style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </right>
       <top style="thin">
-        <color rgb="CDCDCD"/>
+        <color rgb="CDC3C3"/>
       </top>
       <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -2865,7 +2229,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2998,112 +2362,49 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3550,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3561,1496 +2862,1505 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R1" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>469</v>
-      </c>
-      <c r="R1" t="s">
-        <v>364</v>
-      </c>
-      <c r="S1" t="s">
-        <v>454</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s">
-        <v>60</v>
-      </c>
       <c r="X1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="M2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="Q2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="R2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="W2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Q3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="R3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="S3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="X3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>470</v>
+      </c>
+      <c r="R4" t="s">
+        <v>360</v>
+      </c>
+      <c r="S4" t="s">
+        <v>450</v>
+      </c>
+      <c r="T4" t="s">
         <v>356</v>
       </c>
-      <c r="I4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>246</v>
-      </c>
-      <c r="O4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P4" t="s">
-        <v>462</v>
-      </c>
-      <c r="R4" t="s">
-        <v>365</v>
-      </c>
-      <c r="S4" t="s">
-        <v>457</v>
-      </c>
-      <c r="T4" t="s">
-        <v>359</v>
-      </c>
       <c r="U4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P5" t="s">
-        <v>463</v>
+        <v>456</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>471</v>
       </c>
       <c r="R5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="T5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="X5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="R6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="T6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="R7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="R8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="T8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="R9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="T9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="W9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P10" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="T10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="W11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="X11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="T12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T13" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="W13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="T23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="T24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>67</v>
+        <v>475</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="T27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="T28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="T29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="T32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="T33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="T34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T37" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="T41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="T42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="T43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="T44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="T45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="T47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="T48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="T49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="T50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="T53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="T55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="T57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="T59" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="T60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="T62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="T63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="T64" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="T65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="T69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="T71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="T73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="T74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T75" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="T76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="T77" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="T79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="T80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="T82" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="T83" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T84" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="T86" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="T87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="T89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="T91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
       <c r="T92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
       <c r="T93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
       <c r="T94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95">
       <c r="T95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96">
       <c r="T96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97">
       <c r="T97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98">
       <c r="T98" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99">
       <c r="T99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100">
       <c r="T100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101">
       <c r="T101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102">
       <c r="T102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103">
       <c r="T103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104">
       <c r="T104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="T105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="T106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107">
       <c r="T107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108">
       <c r="T108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5087,30 +4397,30 @@
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
@@ -5118,7 +4428,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5128,7 +4438,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>472</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -5156,70 +4466,70 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5233,16 +4543,16 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5258,19 +4568,19 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5286,19 +4596,19 @@
       <c r="A8" s="27"/>
       <c r="B8"/>
       <c r="C8" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5313,16 +4623,16 @@
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5337,19 +4647,19 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -5364,19 +4674,19 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -5392,16 +4702,16 @@
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5416,16 +4726,16 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5442,16 +4752,16 @@
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5467,16 +4777,16 @@
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5491,16 +4801,16 @@
     <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -5517,13 +4827,13 @@
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -16650,7 +15960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6FA3C-2CC0-E942-9A15-8683ABE6A7E7}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16675,30 +15985,30 @@
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
@@ -16706,7 +16016,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -16716,7 +16026,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -16744,67 +16054,67 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -16819,19 +16129,19 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -16846,19 +16156,19 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -16873,19 +16183,19 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -16899,25 +16209,25 @@
     </row>
     <row customHeight="1" ht="81" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -16932,19 +16242,19 @@
       <c r="A10" s="27"/>
       <c r="B10"/>
       <c r="C10" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -16959,16 +16269,16 @@
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -16983,19 +16293,19 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -33346,7 +32656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA0747-1280-7544-A746-34C71C19E846}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -33371,30 +32681,30 @@
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
@@ -33402,7 +32712,7 @@
     </row>
     <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -33412,7 +32722,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -33440,67 +32750,67 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -33514,25 +32824,25 @@
     </row>
     <row ht="45" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -33547,16 +32857,16 @@
       <c r="A7" s="27"/>
       <c r="B7"/>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -33572,16 +32882,16 @@
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="7"/>
@@ -33596,16 +32906,16 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{4D25E358-A019-E945-9B49-CE341F7752F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,30 +24,32 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1544,13 +1546,58 @@
   <si>
     <t>section(steps)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1728,8 +1775,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1901,8 +2042,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2222,6 +2516,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2229,7 +2805,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2362,49 +2938,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2849,9 +3470,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2910,27 +3531,33 @@
         <v>451</v>
       </c>
       <c r="Q1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R1" t="s">
         <v>462</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>359</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>447</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2966,13 +3593,13 @@
         <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>479</v>
       </c>
       <c r="L2" t="s">
         <v>465</v>
       </c>
       <c r="M2" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="N2" t="s">
         <v>255</v>
@@ -2984,27 +3611,33 @@
         <v>453</v>
       </c>
       <c r="Q2" t="s">
+        <v>483</v>
+      </c>
+      <c r="R2" t="s">
         <v>468</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>383</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>448</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3040,10 +3673,10 @@
         <v>336</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>317</v>
+        <v>481</v>
       </c>
       <c r="N3" t="s">
         <v>242</v>
@@ -3054,28 +3687,31 @@
       <c r="P3" t="s">
         <v>454</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>469</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>384</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>449</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>174</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>179</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>366</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3108,7 +3744,7 @@
         <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -3122,28 +3758,31 @@
       <c r="P4" t="s">
         <v>455</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>470</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>360</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>450</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>356</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>175</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>180</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>186</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3170,7 +3809,7 @@
         <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -3184,25 +3823,28 @@
       <c r="P5" t="s">
         <v>456</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>471</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>361</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>357</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>176</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>181</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>187</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3226,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -3240,22 +3882,25 @@
       <c r="P6" t="s">
         <v>457</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>363</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>177</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>182</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>188</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3279,7 +3924,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -3293,19 +3938,22 @@
       <c r="P7" t="s">
         <v>458</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>362</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>183</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>189</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3329,7 +3977,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -3340,19 +3988,22 @@
       <c r="P8" t="s">
         <v>459</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>364</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>184</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>190</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3373,7 +4024,7 @@
         <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -3384,16 +4035,16 @@
       <c r="P9" t="s">
         <v>460</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>365</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>211</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>191</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3411,10 +4062,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>482</v>
       </c>
       <c r="N10" t="s">
         <v>249</v>
@@ -3422,13 +4073,13 @@
       <c r="P10" t="s">
         <v>461</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>259</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>192</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3446,21 +4097,21 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>250</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>260</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>261</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3477,16 +4128,19 @@
       <c r="I12" t="s">
         <v>82</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>251</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>103</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3504,15 +4158,15 @@
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
         <v>256</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>328</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3530,15 +4184,15 @@
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
         <v>252</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>104</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3555,13 +4209,16 @@
       <c r="I15" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
       <c r="N15" t="s">
         <v>253</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>105</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3581,16 +4238,16 @@
       <c r="N16" t="s">
         <v>254</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -3601,13 +4258,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -3618,13 +4275,13 @@
       <c r="I18" t="s">
         <v>400</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
         <v>258</v>
@@ -3635,13 +4292,13 @@
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -3652,13 +4309,13 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>323</v>
@@ -3669,13 +4326,13 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -3683,13 +4340,13 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>227</v>
@@ -3697,13 +4354,13 @@
       <c r="E23" t="s">
         <v>292</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -3711,29 +4368,35 @@
       <c r="E24" t="s">
         <v>281</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>477</v>
+      </c>
       <c r="C25" t="s">
         <v>475</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3744,7 +4407,7 @@
       <c r="E27" t="s">
         <v>268</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3755,7 +4418,7 @@
       <c r="E28" t="s">
         <v>285</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3766,7 +4429,7 @@
       <c r="E29" t="s">
         <v>286</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3777,7 +4440,7 @@
       <c r="E30" t="s">
         <v>218</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3788,7 +4451,7 @@
       <c r="E31" t="s">
         <v>277</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3799,7 +4462,7 @@
       <c r="E32" t="s">
         <v>287</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3810,7 +4473,7 @@
       <c r="E33" t="s">
         <v>262</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3818,7 +4481,7 @@
       <c r="E34" t="s">
         <v>332</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3826,7 +4489,7 @@
       <c r="E35" t="s">
         <v>309</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3834,7 +4497,7 @@
       <c r="E36" t="s">
         <v>263</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3842,524 +4505,532 @@
       <c r="E37" t="s">
         <v>310</v>
       </c>
-      <c r="T37" t="s">
-        <v>401</v>
+      <c r="U37" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>269</v>
       </c>
-      <c r="T38" t="s">
-        <v>123</v>
+      <c r="U38" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="T39" t="s">
-        <v>124</v>
+      <c r="U39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>214</v>
       </c>
-      <c r="T40" t="s">
-        <v>125</v>
+      <c r="U40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>291</v>
       </c>
-      <c r="T41" t="s">
-        <v>126</v>
+      <c r="U41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>302</v>
       </c>
-      <c r="T42" t="s">
-        <v>127</v>
+      <c r="U42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>303</v>
       </c>
-      <c r="T43" t="s">
-        <v>128</v>
+      <c r="U43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>345</v>
       </c>
-      <c r="T44" t="s">
-        <v>215</v>
+      <c r="U44" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>344</v>
       </c>
-      <c r="T45" t="s">
-        <v>78</v>
+      <c r="U45" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>213</v>
       </c>
-      <c r="T46" t="s">
-        <v>129</v>
+      <c r="U46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>322</v>
       </c>
-      <c r="T47" t="s">
-        <v>130</v>
+      <c r="U47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>341</v>
       </c>
-      <c r="T48" t="s">
-        <v>131</v>
+      <c r="U48" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>370</v>
       </c>
-      <c r="T49" t="s">
-        <v>132</v>
+      <c r="U49" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>304</v>
       </c>
-      <c r="T50" t="s">
-        <v>348</v>
+      <c r="U50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>358</v>
       </c>
-      <c r="T51" t="s">
-        <v>133</v>
+      <c r="U51" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>333</v>
       </c>
-      <c r="T52" t="s">
-        <v>134</v>
+      <c r="U52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>270</v>
       </c>
-      <c r="T53" t="s">
-        <v>135</v>
+      <c r="U53" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>294</v>
       </c>
-      <c r="T54" t="s">
-        <v>136</v>
+      <c r="U54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>295</v>
       </c>
-      <c r="T55" t="s">
-        <v>137</v>
+      <c r="U55" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>296</v>
       </c>
-      <c r="T56" t="s">
-        <v>138</v>
+      <c r="U56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>305</v>
       </c>
-      <c r="T57" t="s">
-        <v>139</v>
+      <c r="U57" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>314</v>
       </c>
-      <c r="T58" t="s">
-        <v>216</v>
+      <c r="U58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>339</v>
       </c>
-      <c r="T59" t="s">
-        <v>391</v>
+      <c r="U59" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>311</v>
       </c>
-      <c r="T60" t="s">
-        <v>140</v>
+      <c r="U60" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>312</v>
       </c>
-      <c r="T61" t="s">
-        <v>141</v>
+      <c r="U61" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>371</v>
       </c>
-      <c r="T62" t="s">
-        <v>142</v>
+      <c r="U62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>372</v>
       </c>
-      <c r="T63" t="s">
-        <v>143</v>
+      <c r="U63" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>347</v>
       </c>
-      <c r="T64" t="s">
-        <v>199</v>
+      <c r="U64" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>315</v>
       </c>
-      <c r="T65" t="s">
-        <v>200</v>
+      <c r="U65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>271</v>
       </c>
-      <c r="T66" t="s">
-        <v>144</v>
+      <c r="U66" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>355</v>
       </c>
-      <c r="T67" t="s">
-        <v>145</v>
+      <c r="U67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>316</v>
       </c>
-      <c r="T68" t="s">
-        <v>146</v>
+      <c r="U68" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>464</v>
       </c>
-      <c r="T69" t="s">
-        <v>147</v>
+      <c r="U69" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>306</v>
       </c>
-      <c r="T70" t="s">
-        <v>148</v>
+      <c r="U70" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>452</v>
       </c>
-      <c r="T71" t="s">
-        <v>201</v>
+      <c r="U71" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>264</v>
       </c>
-      <c r="T72" t="s">
-        <v>202</v>
+      <c r="U72" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>346</v>
       </c>
-      <c r="T73" t="s">
-        <v>203</v>
+      <c r="U73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>282</v>
       </c>
-      <c r="T74" t="s">
-        <v>204</v>
+      <c r="U74" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>288</v>
       </c>
-      <c r="T75" t="s">
-        <v>217</v>
+      <c r="U75" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>293</v>
       </c>
-      <c r="T76" t="s">
-        <v>149</v>
+      <c r="U76" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>334</v>
-      </c>
-      <c r="T77" t="s">
-        <v>205</v>
+        <v>478</v>
+      </c>
+      <c r="U77" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>272</v>
-      </c>
-      <c r="T78" t="s">
-        <v>150</v>
+        <v>334</v>
+      </c>
+      <c r="U78" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>283</v>
-      </c>
-      <c r="T79" t="s">
-        <v>206</v>
+        <v>272</v>
+      </c>
+      <c r="U79" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>289</v>
-      </c>
-      <c r="T80" t="s">
-        <v>207</v>
+        <v>283</v>
+      </c>
+      <c r="U80" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>278</v>
-      </c>
-      <c r="T81" t="s">
-        <v>208</v>
+        <v>289</v>
+      </c>
+      <c r="U81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>273</v>
-      </c>
-      <c r="T82" t="s">
-        <v>209</v>
+        <v>278</v>
+      </c>
+      <c r="U82" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>290</v>
-      </c>
-      <c r="T83" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="U83" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>274</v>
-      </c>
-      <c r="T84" t="s">
-        <v>210</v>
+        <v>290</v>
+      </c>
+      <c r="U84" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>275</v>
-      </c>
-      <c r="T85" t="s">
-        <v>151</v>
+        <v>274</v>
+      </c>
+      <c r="U85" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>307</v>
-      </c>
-      <c r="T86" t="s">
-        <v>385</v>
+        <v>275</v>
+      </c>
+      <c r="U86" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>313</v>
-      </c>
-      <c r="T87" t="s">
-        <v>152</v>
+        <v>307</v>
+      </c>
+      <c r="U87" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>297</v>
-      </c>
-      <c r="T88" t="s">
-        <v>153</v>
+        <v>313</v>
+      </c>
+      <c r="U88" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>342</v>
-      </c>
-      <c r="T89" t="s">
-        <v>154</v>
+        <v>297</v>
+      </c>
+      <c r="U89" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>279</v>
-      </c>
-      <c r="T90" t="s">
-        <v>155</v>
+        <v>342</v>
+      </c>
+      <c r="U90" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>279</v>
+      </c>
+      <c r="U91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>280</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U92" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92">
-      <c r="T92" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93">
-      <c r="T93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94">
-      <c r="T94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95">
-      <c r="T95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96">
-      <c r="T96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97">
-      <c r="T97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98">
-      <c r="T98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99">
-      <c r="T99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100">
-      <c r="T100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101">
-      <c r="T101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102">
-      <c r="T102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103">
-      <c r="T103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104">
-      <c r="T104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
-      <c r="T105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106">
-      <c r="T106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107">
-      <c r="T107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108">
-      <c r="T108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>172</v>
       </c>
     </row>
@@ -15960,7 +16631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6FA3C-2CC0-E942-9A15-8683ABE6A7E7}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -32656,7 +33327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA0747-1280-7544-A746-34C71C19E846}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4D25E358-A019-E945-9B49-CE341F7752F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8B080878-35B5-FB4E-9E3A-D56E01300409}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14100"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14100" windowWidth="38400" xWindow="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -39,27 +39,22 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -519,9 +514,6 @@
   </si>
   <si>
     <t>saveLocation(var)</t>
-  </si>
-  <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
   </si>
   <si>
     <t>scrollLeft(locator,pixel)</t>
@@ -1517,9 +1509,6 @@
     <t>send(profile,to,subject,body)</t>
   </si>
   <si>
-    <t>assertBetween(num,min,max)</t>
-  </si>
-  <si>
     <t>saveResults(db,sqls,outputDir)</t>
   </si>
   <si>
@@ -1591,13 +1580,25 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1869,8 +1870,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2195,8 +2290,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2798,6 +3046,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2805,7 +3335,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2983,49 +3513,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3470,7 +4045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3486,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -3504,43 +4079,43 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O1" t="s">
         <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="R1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U1" t="s">
         <v>55</v>
@@ -3555,18 +4130,18 @@
         <v>58</v>
       </c>
       <c r="Y1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Z1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -3584,61 +4159,61 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="S2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="T2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U2" t="s">
         <v>98</v>
       </c>
       <c r="V2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Z2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
@@ -3646,73 +4221,73 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K3" t="s">
         <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U3" t="s">
         <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Y3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -3720,7 +4295,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3729,19 +4304,19 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -3750,40 +4325,40 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Z4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -3791,19 +4366,19 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
         <v>73</v>
@@ -3815,37 +4390,37 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="S5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Z5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +4428,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -3874,34 +4449,34 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U6" t="s">
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Z6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -3909,16 +4484,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -3930,48 +4505,48 @@
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U7" t="s">
         <v>101</v>
       </c>
       <c r="W7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Z7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -3983,28 +4558,28 @@
         <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U8" t="s">
         <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Z8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -4012,16 +4587,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -4030,33 +4605,33 @@
         <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -4065,22 +4640,22 @@
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
@@ -4088,10 +4663,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -4103,27 +4678,27 @@
         <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U11" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" t="s">
         <v>260</v>
       </c>
-      <c r="X11" t="s">
-        <v>261</v>
-      </c>
       <c r="Z11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -4135,13 +4710,13 @@
         <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U12" t="s">
         <v>103</v>
       </c>
       <c r="X12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -4152,7 +4727,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -4161,24 +4736,24 @@
         <v>95</v>
       </c>
       <c r="N13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>
@@ -4187,13 +4762,13 @@
         <v>96</v>
       </c>
       <c r="N14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U14" t="s">
         <v>104</v>
       </c>
       <c r="X14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -4201,10 +4776,10 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>85</v>
@@ -4213,41 +4788,41 @@
         <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U15" t="s">
         <v>105</v>
       </c>
       <c r="X15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U16" t="s">
         <v>76</v>
       </c>
       <c r="X16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -4264,7 +4839,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4273,7 +4848,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -4281,13 +4856,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
@@ -4298,13 +4873,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
@@ -4318,10 +4893,10 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
@@ -4338,7 +4913,7 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -4349,10 +4924,10 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -4363,10 +4938,10 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U24" t="s">
         <v>113</v>
@@ -4374,10 +4949,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -4388,13 +4963,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U26" t="s">
         <v>115</v>
@@ -4405,10 +4980,10 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28">
@@ -4416,7 +4991,7 @@
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U28" t="s">
         <v>116</v>
@@ -4427,7 +5002,7 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U29" t="s">
         <v>117</v>
@@ -4438,7 +5013,7 @@
         <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U30" t="s">
         <v>118</v>
@@ -4449,7 +5024,7 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U31" t="s">
         <v>119</v>
@@ -4460,7 +5035,7 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U32" t="s">
         <v>120</v>
@@ -4471,7 +5046,7 @@
         <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U33" t="s">
         <v>121</v>
@@ -4479,15 +5054,15 @@
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U35" t="s">
         <v>122</v>
@@ -4495,26 +5070,26 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
@@ -4527,7 +5102,7 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U40" t="s">
         <v>124</v>
@@ -4535,7 +5110,7 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U41" t="s">
         <v>125</v>
@@ -4543,7 +5118,7 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U42" t="s">
         <v>126</v>
@@ -4551,7 +5126,7 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U43" t="s">
         <v>127</v>
@@ -4559,7 +5134,7 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U44" t="s">
         <v>128</v>
@@ -4567,15 +5142,15 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U46" t="s">
         <v>78</v>
@@ -4583,7 +5158,7 @@
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U47" t="s">
         <v>129</v>
@@ -4591,7 +5166,7 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U48" t="s">
         <v>130</v>
@@ -4599,7 +5174,7 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U49" t="s">
         <v>131</v>
@@ -4607,7 +5182,7 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U50" t="s">
         <v>132</v>
@@ -4615,15 +5190,15 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U52" t="s">
         <v>133</v>
@@ -4631,7 +5206,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U53" t="s">
         <v>134</v>
@@ -4639,7 +5214,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U54" t="s">
         <v>135</v>
@@ -4647,7 +5222,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U55" t="s">
         <v>136</v>
@@ -4655,7 +5230,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U56" t="s">
         <v>137</v>
@@ -4663,7 +5238,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U57" t="s">
         <v>138</v>
@@ -4671,7 +5246,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U58" t="s">
         <v>139</v>
@@ -4679,23 +5254,23 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U61" t="s">
         <v>140</v>
@@ -4703,7 +5278,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U62" t="s">
         <v>141</v>
@@ -4711,327 +5286,337 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>142</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>206</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>385</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5080,10 +5665,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>446</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -5109,7 +5694,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -5137,13 +5722,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -5182,25 +5767,25 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5214,7 +5799,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>13</v>
@@ -5223,7 +5808,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5239,19 +5824,19 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5270,16 +5855,16 @@
         <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5297,13 +5882,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5318,7 +5903,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>53</v>
@@ -5327,10 +5912,10 @@
         <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -5345,7 +5930,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>53</v>
@@ -5354,10 +5939,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -5379,10 +5964,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5397,7 +5982,7 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -5406,7 +5991,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5429,10 +6014,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5451,13 +6036,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5472,7 +6057,7 @@
     <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -5481,7 +6066,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -5501,10 +6086,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -16668,10 +17253,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>445</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>446</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
@@ -16725,13 +17310,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>2</v>
@@ -16770,22 +17355,22 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -16800,19 +17385,19 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -16827,19 +17412,19 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -16854,19 +17439,19 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -16880,25 +17465,25 @@
     </row>
     <row customHeight="1" ht="81" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -16916,16 +17501,16 @@
         <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -16946,10 +17531,10 @@
         <v>27</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -16964,7 +17549,7 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
@@ -16973,10 +17558,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -33364,10 +33949,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>445</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>446</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
@@ -33421,13 +34006,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>2</v>
@@ -33466,22 +34051,22 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -33493,27 +34078,27 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row ht="45" r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row ht="48" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -33531,13 +34116,13 @@
         <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -33556,13 +34141,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="7"/>
@@ -33577,16 +34162,16 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="494">
   <si>
     <t>description</t>
   </si>
@@ -1592,13 +1592,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1964,8 +1967,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2443,8 +2634,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3328,6 +3825,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3335,7 +4396,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3558,49 +4619,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4045,7 +5196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5257,7 +6408,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60">
@@ -5265,7 +6416,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -5273,7 +6424,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -5281,7 +6432,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -5289,7 +6440,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>489</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -5297,7 +6448,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65">
@@ -5305,7 +6456,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -5313,7 +6464,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -5321,7 +6472,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -5329,7 +6480,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -5337,7 +6488,7 @@
         <v>463</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -5345,7 +6496,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -5353,7 +6504,7 @@
         <v>451</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -5361,7 +6512,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -5369,7 +6520,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -5377,7 +6528,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -5385,7 +6536,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -5393,7 +6544,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -5401,7 +6552,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -5409,7 +6560,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -5417,7 +6568,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -5425,7 +6576,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -5433,7 +6584,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82">
@@ -5441,7 +6592,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83">
@@ -5449,7 +6600,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -5457,7 +6608,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -5465,7 +6616,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -5473,7 +6624,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -5481,7 +6632,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -5489,7 +6640,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -5497,7 +6648,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -5505,7 +6656,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -5513,7 +6664,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -5521,101 +6672,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1595,13 +1595,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="102" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2155,8 +2161,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2940,8 +3040,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4389,6 +4642,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4396,7 +4931,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4709,49 +5244,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5196,7 +5776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6296,7 +6876,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46">
@@ -6304,7 +6884,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -6312,7 +6892,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -6320,7 +6900,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -6328,7 +6908,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -6336,7 +6916,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -6344,7 +6924,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -6352,7 +6932,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -6360,7 +6940,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -6368,7 +6948,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -6376,7 +6956,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -6384,7 +6964,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -6392,7 +6972,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -6400,7 +6980,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -6408,7 +6988,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>493</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -6416,7 +6996,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61">
@@ -6424,7 +7004,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -6432,7 +7012,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -6440,7 +7020,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -6448,7 +7028,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>489</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
@@ -6732,46 +7312,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -21,16 +21,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,8 +44,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1601,13 +1601,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="102" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2255,8 +2273,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3193,8 +3493,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -4924,6 +5683,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4931,7 +6536,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5289,49 +6894,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="120" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5776,7 +7516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6102,6 +7842,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -6195,7 +7938,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>500</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -6250,6 +7993,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>501</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -6300,6 +8046,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -6368,7 +8117,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>498</v>
       </c>
       <c r="M10" t="s">
         <v>480</v>
@@ -6403,7 +8152,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -6435,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6463,6 +8212,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -6613,7 +8365,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -6630,7 +8382,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -6646,6 +8398,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7020,7 +8775,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>140</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
@@ -7028,7 +8783,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7036,7 +8791,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7044,7 +8799,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7052,7 +8807,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7060,7 +8815,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -7068,7 +8823,7 @@
         <v>463</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7076,7 +8831,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7084,7 +8839,7 @@
         <v>451</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7092,7 +8847,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7100,7 +8855,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7108,7 +8863,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -7116,7 +8871,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -7124,7 +8879,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -7132,7 +8887,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -7140,7 +8895,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -7148,7 +8903,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -7156,7 +8911,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -7164,7 +8919,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -7172,7 +8927,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83">
@@ -7180,7 +8935,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84">
@@ -7188,7 +8943,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -7196,7 +8951,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -7204,7 +8959,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -7212,7 +8967,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -7220,7 +8975,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -7228,7 +8983,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -7236,7 +8991,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -7244,7 +8999,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -7252,111 +9007,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1625,7 +1625,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="162" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2555,8 +2555,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3952,8 +4046,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6529,6 +6776,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6536,7 +7065,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7029,49 +7558,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -25,12 +25,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1619,13 +1619,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="162" x14ac:knownFonts="1">
+  <fonts count="192" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2649,8 +2655,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4199,8 +4393,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7058,6 +7558,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7065,7 +8129,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="218">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7603,49 +8667,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="152" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="165" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="167" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8278,7 +9432,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>502</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8352,7 +9506,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8423,7 +9577,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8485,7 +9639,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8541,13 +9695,13 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8597,13 +9751,13 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -8649,11 +9803,14 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -8687,11 +9844,14 @@
       <c r="E10" t="s">
         <v>353</v>
       </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>480</v>
@@ -8726,7 +9886,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>498</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8758,7 +9918,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8787,7 +9947,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -8814,6 +9974,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1625,13 +1625,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="192" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2843,8 +2858,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4699,8 +4808,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8122,6 +8384,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8129,7 +8673,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8757,49 +9301,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="182" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9352,7 +9941,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>505</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -9432,7 +10021,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>502</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9506,7 +10095,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -9577,7 +10166,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -9639,7 +10228,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -9695,7 +10284,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -9751,7 +10340,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -9804,7 +10393,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>508</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -9845,7 +10434,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9882,6 +10471,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -9914,6 +10506,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -9943,6 +10538,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -10147,7 +10745,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>504</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -10161,7 +10759,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -10175,7 +10773,7 @@
         <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -10189,7 +10787,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>473</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -10200,7 +10798,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -10211,7 +10809,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -10222,7 +10820,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -10233,7 +10831,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -10244,7 +10842,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -10255,7 +10853,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -10266,7 +10864,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -10276,6 +10874,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1640,13 +1640,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="207" x14ac:knownFonts="1">
+  <fonts count="237" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2952,8 +2958,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4961,8 +5155,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8666,6 +9166,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8673,7 +9737,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9346,49 +10410,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="197" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9833,7 +10987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11225,7 +12379,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78">
@@ -11233,7 +12387,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -11241,7 +12395,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -11249,7 +12403,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -11257,7 +12411,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -11265,7 +12419,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -11273,7 +12427,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84">
@@ -11281,7 +12435,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85">
@@ -11289,7 +12443,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -11297,7 +12451,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -11305,7 +12459,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -11313,7 +12467,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -11321,7 +12475,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -11329,7 +12483,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -11337,7 +12491,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -11345,116 +12499,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1646,13 +1646,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="237" x14ac:knownFonts="1">
+  <fonts count="252" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3146,8 +3149,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5461,8 +5558,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9730,6 +9980,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9737,7 +10269,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10500,49 +11032,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10987,7 +11564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12323,7 +12900,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71">
@@ -12331,7 +12908,7 @@
         <v>451</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -12339,7 +12916,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -12347,7 +12924,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -12355,7 +12932,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -12363,7 +12940,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -12371,7 +12948,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -12379,7 +12956,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>510</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -12387,7 +12964,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79">
@@ -12395,7 +12972,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -12403,7 +12980,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -12411,7 +12988,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -12419,7 +12996,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -12427,7 +13004,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -12435,7 +13012,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85">
@@ -12443,7 +13020,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -12451,7 +13028,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -12459,7 +13036,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -12467,7 +13044,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -12475,7 +13052,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -12483,7 +13060,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -12491,7 +13068,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -12499,121 +13076,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7913" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1649,13 +1649,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="252" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3243,8 +3246,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5711,8 +5808,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10262,6 +10512,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10269,7 +10801,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11077,49 +11609,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11897,7 +12474,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -11959,7 +12536,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -12015,7 +12592,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>503</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -12071,7 +12648,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -12124,7 +12701,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>508</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -12165,7 +12742,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>508</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -12203,7 +12780,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -12238,7 +12815,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -12270,7 +12847,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -12300,6 +12877,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8378" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9310" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1652,13 +1652,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="297" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3340,8 +3343,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5961,8 +6152,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -10794,6 +11291,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10801,7 +11862,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11654,49 +12715,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="272" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12882,7 +14033,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>513</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -12911,7 +14062,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -12937,7 +14088,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -12960,7 +14111,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -12977,7 +14128,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -12994,7 +14145,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -13011,7 +14162,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>497</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -13028,7 +14179,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -13045,7 +14196,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -13060,6 +14211,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9310" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10246" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1655,13 +1655,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="297" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3531,8 +3537,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6458,8 +6652,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -11855,6 +12355,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11862,7 +12926,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="353">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12805,49 +13869,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="299" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="300" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13471,7 +14625,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -13545,7 +14699,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -13616,7 +14770,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
         <v>496</v>
@@ -13681,7 +14835,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -13737,7 +14891,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -13793,7 +14947,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -13846,7 +15000,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -13887,7 +15041,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -13925,7 +15079,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -13960,7 +15114,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -13992,7 +15146,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -14024,7 +15178,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -14056,7 +15210,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -14082,7 +15236,7 @@
         <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -14105,7 +15259,7 @@
         <v>474</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -14122,7 +15276,7 @@
         <v>461</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>462</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -14139,7 +15293,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -14156,7 +15310,7 @@
         <v>446</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -14173,7 +15327,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -14190,7 +15344,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -14207,7 +15361,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -14224,7 +15378,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -14238,7 +15392,7 @@
         <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>504</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -14252,7 +15406,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -14263,7 +15417,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -14274,7 +15428,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>473</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -14285,7 +15439,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -14296,7 +15450,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -14307,7 +15461,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -14318,7 +15472,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -14329,7 +15483,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -14340,7 +15494,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -14350,6 +15504,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -14358,6 +15515,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10246" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10715" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1661,13 +1661,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="327" x14ac:knownFonts="1">
+  <fonts count="342" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3725,8 +3728,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6958,8 +7055,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12919,6 +13169,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12926,7 +13458,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="368">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13959,49 +14491,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14446,7 +15023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15658,7 +16235,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54">
@@ -15666,7 +16243,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -15674,7 +16251,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -15682,7 +16259,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -15690,7 +16267,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -15698,7 +16275,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -15706,7 +16283,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -15714,7 +16291,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>493</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -15722,7 +16299,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62">
@@ -15730,7 +16307,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -15738,7 +16315,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>499</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -15746,7 +16323,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65">
@@ -15754,7 +16331,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -15762,7 +16339,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -15770,7 +16347,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -15778,7 +16355,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -15786,7 +16363,7 @@
         <v>463</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -15794,7 +16371,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -15802,7 +16379,7 @@
         <v>451</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72">
@@ -15810,7 +16387,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -15818,7 +16395,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -15826,7 +16403,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -15834,7 +16411,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -15842,7 +16419,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -15850,7 +16427,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -15858,7 +16435,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>510</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -15866,7 +16443,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80">
@@ -15874,7 +16451,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -15882,7 +16459,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -15890,7 +16467,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -15898,7 +16475,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -15906,7 +16483,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -15914,7 +16491,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86">
@@ -15922,7 +16499,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87">
@@ -15930,7 +16507,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -15938,7 +16515,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -15946,7 +16523,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -15954,7 +16531,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -15962,7 +16539,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -15970,126 +16547,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -20,36 +20,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10715" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11191" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1664,13 +1665,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="342" x14ac:knownFonts="1">
+  <fonts count="358" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3822,8 +3841,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7208,8 +7328,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13451,6 +13724,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13458,7 +14013,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="384">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14536,49 +15091,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="330" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="332" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15023,7 +15626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15042,75 +15645,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>450</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>474</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>461</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>446</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>475</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15122,1556 +15728,1576 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>505</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>477</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>464</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>481</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>466</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>447</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>483</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" t="s">
         <v>514</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>479</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>453</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>467</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>448</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>506</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>454</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>468</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>449</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>484</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>515</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>496</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>512</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>520</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>455</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>469</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>485</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>507</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>456</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>500</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>486</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>503</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>465</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>457</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>501</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>487</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>458</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>488</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>459</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>508</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>480</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>460</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>498</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>513</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>513</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>450</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>474</v>
-      </c>
-      <c r="C17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>461</v>
-      </c>
-      <c r="C18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D18" t="s">
         <v>462</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>399</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>399</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>497</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>497</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>504</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>475</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>473</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+      <c r="V52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>332</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>269</v>
+      </c>
+      <c r="V53" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>269</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="V54" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>293</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>294</v>
+      </c>
+      <c r="V55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>294</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>295</v>
+      </c>
+      <c r="V56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>295</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+      <c r="V57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>304</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>313</v>
+      </c>
+      <c r="V58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>313</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="V59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>338</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>310</v>
+      </c>
+      <c r="V60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>310</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>311</v>
+      </c>
+      <c r="V61" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>311</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>370</v>
+      </c>
+      <c r="V62" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>370</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>371</v>
+      </c>
+      <c r="V63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>371</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>346</v>
+      </c>
+      <c r="V64" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>346</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="V65" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>314</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+      <c r="V66" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>270</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>354</v>
+      </c>
+      <c r="V67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>354</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>315</v>
+      </c>
+      <c r="V68" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>315</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>463</v>
+      </c>
+      <c r="V69" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>463</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>305</v>
+      </c>
+      <c r="V70" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>305</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>451</v>
+      </c>
+      <c r="V71" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>451</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>263</v>
+      </c>
+      <c r="V72" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>263</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+      <c r="V73" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>345</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V74" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>281</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>287</v>
+      </c>
+      <c r="V75" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>287</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>292</v>
+      </c>
+      <c r="V76" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>292</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>476</v>
+      </c>
+      <c r="V77" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>476</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>333</v>
+      </c>
+      <c r="V78" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>333</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="V79" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>271</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>282</v>
+      </c>
+      <c r="V80" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>282</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>288</v>
+      </c>
+      <c r="V81" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>288</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>277</v>
+      </c>
+      <c r="V82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>277</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>272</v>
+      </c>
+      <c r="V83" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>272</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>289</v>
+      </c>
+      <c r="V84" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>289</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>273</v>
+      </c>
+      <c r="V85" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>273</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>274</v>
+      </c>
+      <c r="V86" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>274</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>306</v>
+      </c>
+      <c r="V87" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>306</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>312</v>
+      </c>
+      <c r="V88" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>312</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>296</v>
+      </c>
+      <c r="V89" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>296</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>341</v>
+      </c>
+      <c r="V90" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>341</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>278</v>
+      </c>
+      <c r="V91" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>278</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>279</v>
+      </c>
+      <c r="V92" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>279</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11191" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11668" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1683,13 +1683,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="358" x14ac:knownFonts="1">
+  <fonts count="374" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3942,8 +3945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7481,8 +7585,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -14006,6 +14263,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14013,7 +14552,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="400">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15136,52 +15675,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="345" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15746,7 +16333,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>523</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -15829,7 +16416,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -15900,7 +16487,7 @@
         <v>506</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -15971,7 +16558,7 @@
         <v>512</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>520</v>
@@ -16031,6 +16618,9 @@
       </c>
       <c r="G6" t="s">
         <v>507</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11668" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12629" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1686,13 +1686,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="374" x14ac:knownFonts="1">
+  <fonts count="406" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4046,8 +4058,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7738,8 +7952,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14545,6 +15065,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14552,7 +15636,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="432">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15723,52 +16807,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="360" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="364" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="376" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="377" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="380" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16213,7 +17393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17081,7 +18261,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>527</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -17098,7 +18278,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -17115,7 +18295,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>399</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -17132,7 +18312,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>497</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -17149,7 +18329,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -17166,7 +18346,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -17182,6 +18362,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -17216,7 +18399,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -17227,7 +18410,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>525</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -17238,7 +18421,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>473</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -17249,7 +18432,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -17260,7 +18443,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -17271,7 +18454,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -17282,7 +18465,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -17293,7 +18476,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -17304,7 +18487,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -17314,6 +18497,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -17322,6 +18508,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -17606,7 +18795,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74">
@@ -17614,7 +18803,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -17622,7 +18811,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -17630,7 +18819,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -17638,7 +18827,7 @@
         <v>476</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -17646,7 +18835,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -17654,7 +18843,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -17662,7 +18851,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>510</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -17670,7 +18859,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82">
@@ -17678,7 +18867,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -17686,7 +18875,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -17694,7 +18883,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -17702,7 +18891,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -17710,7 +18899,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>490</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -17718,7 +18907,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88">
@@ -17726,7 +18915,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
@@ -17734,7 +18923,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -17742,7 +18931,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -17750,7 +18939,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -17758,136 +18947,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>495</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -26,31 +26,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12629" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13123" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -1698,13 +1699,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="406" x14ac:knownFonts="1">
+  <fonts count="422" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4260,8 +4303,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8258,8 +8402,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -15629,6 +15926,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15636,7 +16215,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="448">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16903,52 +17482,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="392" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="393" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="396" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17393,7 +18020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17442,48 +18069,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>450</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>474</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>461</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>446</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>475</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17525,48 +18155,51 @@
         <v>477</v>
       </c>
       <c r="M2" t="s">
+        <v>533</v>
+      </c>
+      <c r="N2" t="s">
         <v>464</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>478</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>452</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>481</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>466</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>447</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>483</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17593,7 +18226,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>529</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -17607,43 +18240,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>534</v>
+      </c>
+      <c r="O3" t="s">
         <v>479</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>453</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>467</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>448</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17666,6 +18302,9 @@
       <c r="G4" t="s">
         <v>506</v>
       </c>
+      <c r="H4" t="s">
+        <v>530</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -17678,43 +18317,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>535</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>454</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>468</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>449</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>484</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17746,40 +18388,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>455</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>469</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>485</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17808,37 +18450,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>456</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>500</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>486</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -17864,37 +18506,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>465</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>457</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>501</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>487</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -17920,34 +18562,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>458</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>488</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17973,26 +18615,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>459</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
-        <v>236</v>
+      <c r="AB9" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10">
@@ -18014,23 +18656,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>480</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>460</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
-        <v>237</v>
+      <c r="AB10" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="11">
@@ -18050,22 +18692,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>498</v>
-      </c>
-      <c r="N11" t="s">
+        <v>531</v>
+      </c>
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
-        <v>238</v>
+      <c r="AB11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -18085,24 +18727,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>528</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -18117,24 +18762,27 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>532</v>
+      </c>
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -18149,24 +18797,24 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -18177,22 +18825,25 @@
       <c r="J15" t="s">
         <v>513</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -18203,19 +18854,22 @@
       <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -18226,16 +18880,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
         <v>462</v>
@@ -18246,13 +18900,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -18263,13 +18917,13 @@
       <c r="J19" t="s">
         <v>527</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -18280,13 +18934,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -18297,13 +18951,13 @@
       <c r="J21" t="s">
         <v>399</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -18314,13 +18968,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -18331,13 +18985,13 @@
       <c r="J23" t="s">
         <v>497</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -18348,13 +19002,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>504</v>
@@ -18365,13 +19019,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -18379,13 +19033,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -18393,18 +19047,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>524</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -18415,7 +19072,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18426,7 +19083,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18437,7 +19094,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18448,7 +19105,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -18459,7 +19116,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18470,7 +19127,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -18481,7 +19138,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18492,7 +19149,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -18503,7 +19160,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>482</v>
       </c>
     </row>
@@ -18514,7 +19171,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>400</v>
       </c>
     </row>
@@ -18522,7 +19179,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18530,7 +19187,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18538,7 +19195,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18546,7 +19203,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18554,7 +19211,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -18562,7 +19219,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18570,7 +19227,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>494</v>
       </c>
     </row>
@@ -18578,7 +19235,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -18586,7 +19243,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -18594,7 +19251,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18602,7 +19259,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -18610,7 +19267,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18618,470 +19275,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>521</v>
+      <c r="W51" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>516</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>493</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>215</v>
+      <c r="W63" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>390</v>
+      <c r="W64" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>499</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>140</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>141</v>
+      <c r="W67" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>142</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>463</v>
       </c>
-      <c r="V69" t="s">
-        <v>143</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>198</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>451</v>
       </c>
-      <c r="V71" t="s">
-        <v>199</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>511</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>526</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>144</v>
+      <c r="W74" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>145</v>
+      <c r="W75" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>146</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>476</v>
       </c>
-      <c r="V77" t="s">
-        <v>147</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>148</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>200</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>201</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>510</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>202</v>
+      <c r="W82" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>203</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>216</v>
+      <c r="W84" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>149</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>204</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>490</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>492</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>205</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>206</v>
+      <c r="W90" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>207</v>
+      <c r="W91" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -20,38 +20,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13123" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14648" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1741,13 +1742,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="422" x14ac:knownFonts="1">
+  <fonts count="470" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4404,8 +4456,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8555,8 +8910,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -16208,6 +17022,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16215,7 +17875,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="496">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17530,52 +19190,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="408" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="412" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="424" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="425" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="428" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="440" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="441" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="444" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18020,7 +19824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18042,78 +19846,81 @@
         <v>517</v>
       </c>
       <c r="D1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>528</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>450</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>474</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>461</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>446</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>475</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -18128,79 +19935,82 @@
         <v>518</v>
       </c>
       <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>505</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>523</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>477</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>533</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>464</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>478</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>452</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>481</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>466</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>447</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>483</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="3">
@@ -18214,1546 +20024,1595 @@
         <v>519</v>
       </c>
       <c r="D3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
         <v>514</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>529</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>534</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>479</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>453</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>467</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>448</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>506</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>530</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>535</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>454</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>468</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>449</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>484</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" t="s">
         <v>515</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>496</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>512</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>520</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>455</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>469</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>485</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>507</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>456</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>500</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>486</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>503</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>465</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>457</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>501</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>487</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>458</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>488</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>459</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>540</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>508</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>480</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>460</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>541</v>
+      <c r="AC10" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>531</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>498</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>528</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>532</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>513</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>97</v>
-      </c>
       <c r="P15" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA17" t="s">
         <v>522</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>450</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>462</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
-        <v>107</v>
+      <c r="X18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>474</v>
-      </c>
-      <c r="D19" t="s">
+        <v>450</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>527</v>
       </c>
-      <c r="W19" t="s">
-        <v>108</v>
+      <c r="X19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
-        <v>109</v>
+      <c r="X20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>399</v>
       </c>
-      <c r="W21" t="s">
-        <v>536</v>
+      <c r="X21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
-        <v>111</v>
+      <c r="X22" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>497</v>
       </c>
-      <c r="W23" t="s">
-        <v>112</v>
+      <c r="X23" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
-        <v>113</v>
+      <c r="X24" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>504</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>114</v>
+      <c r="X25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
-        <v>115</v>
+      <c r="X26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>475</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
-        <v>328</v>
+      <c r="X27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>524</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>525</v>
+      </c>
+      <c r="G29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>525</v>
-      </c>
-      <c r="F29" t="s">
-        <v>285</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>473</v>
+      </c>
+      <c r="G30" t="s">
+        <v>217</v>
+      </c>
+      <c r="X30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>473</v>
-      </c>
-      <c r="F30" t="s">
-        <v>217</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>276</v>
+      </c>
+      <c r="X31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" t="s">
-        <v>276</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>286</v>
+      </c>
+      <c r="X32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>286</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" t="s">
-        <v>261</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="X34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>331</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>308</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>262</v>
+      </c>
+      <c r="X36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>262</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>309</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>268</v>
+      </c>
+      <c r="X38" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s">
-        <v>268</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>213</v>
+      </c>
+      <c r="X40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>213</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>290</v>
+      </c>
+      <c r="X41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>290</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>301</v>
+      </c>
+      <c r="X42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>301</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>302</v>
+      </c>
+      <c r="X43" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>302</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>344</v>
+      </c>
+      <c r="X44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>344</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>343</v>
+      </c>
+      <c r="X45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>343</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>212</v>
+      </c>
+      <c r="X46" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>212</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>321</v>
+      </c>
+      <c r="X47" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>321</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>340</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>369</v>
+      </c>
+      <c r="X49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>369</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>303</v>
+      </c>
+      <c r="X50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>303</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>357</v>
+      </c>
+      <c r="X51" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>357</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>332</v>
+      </c>
+      <c r="X52" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>332</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>269</v>
+      </c>
+      <c r="X53" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>269</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>293</v>
+      </c>
+      <c r="X54" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>293</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>294</v>
+      </c>
+      <c r="X55" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>294</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>295</v>
+      </c>
+      <c r="X56" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>295</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>304</v>
+      </c>
+      <c r="X57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>304</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>313</v>
+      </c>
+      <c r="X58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>313</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>338</v>
+      </c>
+      <c r="X59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>338</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>310</v>
+      </c>
+      <c r="X60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>310</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>311</v>
+      </c>
+      <c r="X61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>311</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>370</v>
+      </c>
+      <c r="X62" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>370</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>371</v>
+      </c>
+      <c r="X63" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>371</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>346</v>
+      </c>
+      <c r="X64" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>346</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>314</v>
+      </c>
+      <c r="X65" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>314</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+      <c r="X66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>270</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>354</v>
+      </c>
+      <c r="X67" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>354</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>315</v>
+      </c>
+      <c r="X68" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>315</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>463</v>
+      </c>
+      <c r="X69" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>463</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>305</v>
+      </c>
+      <c r="X70" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>305</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>451</v>
+      </c>
+      <c r="X71" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>451</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>263</v>
+      </c>
+      <c r="X72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>263</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>345</v>
+      </c>
+      <c r="X73" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>345</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>281</v>
+      </c>
+      <c r="X74" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>281</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>287</v>
+      </c>
+      <c r="X75" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>287</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>292</v>
+      </c>
+      <c r="X76" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>292</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>476</v>
+      </c>
+      <c r="X77" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>476</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>333</v>
+      </c>
+      <c r="X78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>333</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>271</v>
+      </c>
+      <c r="X79" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>271</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>282</v>
+      </c>
+      <c r="X80" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>288</v>
+      </c>
+      <c r="X81" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>282</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>277</v>
+      </c>
+      <c r="X82" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>288</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>272</v>
+      </c>
+      <c r="X83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>277</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>289</v>
+      </c>
+      <c r="X84" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>272</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>273</v>
+      </c>
+      <c r="X85" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>289</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>274</v>
+      </c>
+      <c r="X86" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>273</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>306</v>
+      </c>
+      <c r="X87" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>274</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>312</v>
+      </c>
+      <c r="X88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>306</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>296</v>
+      </c>
+      <c r="X89" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>312</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>341</v>
+      </c>
+      <c r="X90" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>296</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>278</v>
+      </c>
+      <c r="X91" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>341</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>279</v>
+      </c>
+      <c r="X92" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>278</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>279</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{613525CF-2010-C74F-9346-B5A3EDD0FBCF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="9940" windowWidth="20480" xWindow="51200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5420" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="9940" windowWidth="20480" xWindow="51200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5420"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -47,7 +47,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1796,13 +1796,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1987,8 +1993,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="91">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2160,8 +2368,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2481,6 +3029,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2488,7 +3600,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2621,52 +3733,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3111,9 +4319,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4803,126 +6011,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>147</v>
+        <v>560</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>148</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>490</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>162</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>168</v>
       </c>
     </row>
@@ -16529,7 +17747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6FA3C-2CC0-E942-9A15-8683ABE6A7E7}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -33225,7 +34443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA0747-1280-7544-A746-34C71C19E846}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -33,26 +33,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1802,13 +1803,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2195,8 +2217,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="91">
+  <fills count="151">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2708,8 +2932,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3593,6 +4157,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3600,7 +4728,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3829,52 +4957,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="93" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="99" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="111" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="114" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="141" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="144" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="144" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4319,7 +5543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4371,51 +5595,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O1" t="s">
         <v>521</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>237</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>447</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>471</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>458</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>355</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>443</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>472</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4460,51 +5687,54 @@
         <v>474</v>
       </c>
       <c r="N2" t="s">
+        <v>563</v>
+      </c>
+      <c r="O2" t="s">
         <v>526</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>461</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>475</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>251</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>215</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>449</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>478</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>463</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>379</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>444</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>174</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>181</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>480</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>540</v>
       </c>
     </row>
@@ -4549,45 +5779,48 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
+        <v>564</v>
+      </c>
+      <c r="O3" t="s">
         <v>527</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>476</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>238</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>216</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>450</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>464</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>380</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>445</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>175</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>362</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4629,45 +5862,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>565</v>
+      </c>
+      <c r="O4" t="s">
         <v>528</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>239</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>217</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>451</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>465</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>356</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>446</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>352</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>481</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4702,40 +5938,43 @@
       <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>240</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>218</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>452</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>466</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>357</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>353</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>482</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4767,37 +6006,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>241</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>389</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>453</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>495</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>178</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>184</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>483</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4823,37 +6065,40 @@
       <c r="M7" t="s">
         <v>313</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>242</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>462</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>454</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>358</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>496</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>185</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>484</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4879,34 +6124,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>243</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>455</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>360</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>173</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>485</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4932,25 +6177,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>244</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>456</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>361</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>207</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>187</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4973,22 +6218,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>477</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>245</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>457</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>255</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5011,19 +6256,19 @@
       <c r="M11" t="s">
         <v>524</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>256</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5046,19 +6291,19 @@
       <c r="M12" t="s">
         <v>493</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>189</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>542</v>
       </c>
     </row>
@@ -5081,25 +6326,25 @@
       <c r="M13" t="s">
         <v>525</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>252</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>324</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>190</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -5116,25 +6361,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>248</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>191</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>521</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -5148,25 +6393,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>549</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>249</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>192</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>383</v>
@@ -5180,25 +6425,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>550</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>250</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>193</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>384</v>
@@ -5209,19 +6454,19 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>551</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>515</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
         <v>459</v>
@@ -5232,16 +6477,16 @@
       <c r="K18" t="s">
         <v>506</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -5252,16 +6497,16 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -5272,16 +6517,16 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E21" t="s">
         <v>254</v>
@@ -5292,16 +6537,16 @@
       <c r="K21" t="s">
         <v>378</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -5312,13 +6557,13 @@
       <c r="K22" t="s">
         <v>520</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="E23" t="s">
         <v>319</v>
@@ -5329,13 +6574,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>443</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -5346,13 +6591,13 @@
       <c r="K24" t="s">
         <v>396</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>498</v>
@@ -5363,13 +6608,13 @@
       <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>223</v>
@@ -5380,13 +6625,13 @@
       <c r="K26" t="s">
         <v>492</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -5397,13 +6642,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>472</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>517</v>
@@ -5414,13 +6659,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>472</v>
       </c>
       <c r="E29" t="s">
         <v>518</v>
@@ -5428,18 +6673,21 @@
       <c r="G29" t="s">
         <v>282</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
       <c r="E30" t="s">
         <v>470</v>
       </c>
       <c r="G30" t="s">
         <v>214</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5450,7 +6698,7 @@
       <c r="G31" t="s">
         <v>273</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5461,7 +6709,7 @@
       <c r="G32" t="s">
         <v>283</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5472,7 +6720,7 @@
       <c r="G33" t="s">
         <v>554</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5483,7 +6731,7 @@
       <c r="G34" t="s">
         <v>258</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5494,7 +6742,7 @@
       <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5505,7 +6753,7 @@
       <c r="G36" t="s">
         <v>305</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5516,7 +6764,7 @@
       <c r="G37" t="s">
         <v>259</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5527,7 +6775,7 @@
       <c r="G38" t="s">
         <v>306</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5535,7 +6783,7 @@
       <c r="G39" t="s">
         <v>265</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5543,7 +6791,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5551,7 +6799,7 @@
       <c r="G41" t="s">
         <v>210</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5559,7 +6807,7 @@
       <c r="G42" t="s">
         <v>287</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5567,7 +6815,7 @@
       <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5575,7 +6823,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5583,7 +6831,7 @@
       <c r="G45" t="s">
         <v>341</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5591,7 +6839,7 @@
       <c r="G46" t="s">
         <v>340</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5599,7 +6847,7 @@
       <c r="G47" t="s">
         <v>209</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5607,7 +6855,7 @@
       <c r="G48" t="s">
         <v>318</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5615,7 +6863,7 @@
       <c r="G49" t="s">
         <v>337</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5623,7 +6871,7 @@
       <c r="G50" t="s">
         <v>366</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5631,7 +6879,7 @@
       <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5639,7 +6887,7 @@
       <c r="G52" t="s">
         <v>354</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5647,7 +6895,7 @@
       <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5655,7 +6903,7 @@
       <c r="G54" t="s">
         <v>266</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5663,7 +6911,7 @@
       <c r="G55" t="s">
         <v>290</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5671,7 +6919,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5679,7 +6927,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5687,7 +6935,7 @@
       <c r="G58" t="s">
         <v>301</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5695,7 +6943,7 @@
       <c r="G59" t="s">
         <v>310</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5703,7 +6951,7 @@
       <c r="G60" t="s">
         <v>335</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5711,7 +6959,7 @@
       <c r="G61" t="s">
         <v>307</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5719,7 +6967,7 @@
       <c r="G62" t="s">
         <v>308</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5727,7 +6975,7 @@
       <c r="G63" t="s">
         <v>367</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5735,7 +6983,7 @@
       <c r="G64" t="s">
         <v>368</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5743,7 +6991,7 @@
       <c r="G65" t="s">
         <v>343</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5751,7 +6999,7 @@
       <c r="G66" t="s">
         <v>311</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5759,7 +7007,7 @@
       <c r="G67" t="s">
         <v>267</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5767,7 +7015,7 @@
       <c r="G68" t="s">
         <v>351</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5775,7 +7023,7 @@
       <c r="G69" t="s">
         <v>312</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5783,7 +7031,7 @@
       <c r="G70" t="s">
         <v>460</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5791,7 +7039,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5799,7 +7047,7 @@
       <c r="G72" t="s">
         <v>448</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5807,7 +7055,7 @@
       <c r="G73" t="s">
         <v>260</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5815,7 +7063,7 @@
       <c r="G74" t="s">
         <v>555</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5823,7 +7071,7 @@
       <c r="G75" t="s">
         <v>342</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5831,7 +7079,7 @@
       <c r="G76" t="s">
         <v>278</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5839,7 +7087,7 @@
       <c r="G77" t="s">
         <v>284</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5847,7 +7095,7 @@
       <c r="G78" t="s">
         <v>289</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5855,7 +7103,7 @@
       <c r="G79" t="s">
         <v>473</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5863,7 +7111,7 @@
       <c r="G80" t="s">
         <v>330</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>545</v>
       </c>
     </row>
@@ -5871,7 +7119,7 @@
       <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5879,7 +7127,7 @@
       <c r="G82" t="s">
         <v>279</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5887,7 +7135,7 @@
       <c r="G83" t="s">
         <v>285</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5895,7 +7143,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5903,7 +7151,7 @@
       <c r="G85" t="s">
         <v>269</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5911,7 +7159,7 @@
       <c r="G86" t="s">
         <v>286</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5919,7 +7167,7 @@
       <c r="G87" t="s">
         <v>270</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5927,7 +7175,7 @@
       <c r="G88" t="s">
         <v>271</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5935,7 +7183,7 @@
       <c r="G89" t="s">
         <v>303</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5943,7 +7191,7 @@
       <c r="G90" t="s">
         <v>309</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5951,7 +7199,7 @@
       <c r="G91" t="s">
         <v>293</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5959,7 +7207,7 @@
       <c r="G92" t="s">
         <v>338</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5967,7 +7215,7 @@
       <c r="G93" t="s">
         <v>275</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5975,172 +7223,172 @@
       <c r="G94" t="s">
         <v>276</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>168</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -53,7 +53,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1824,13 +1824,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2419,8 +2431,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="151">
+  <fills count="211">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3272,8 +3486,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4721,6 +5275,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4728,7 +5846,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5053,52 +6171,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="141" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="141" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="144" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="144" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="144" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="144" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="132" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="153" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="156" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="159" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="168" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="171" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="183" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="189" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="192" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="198" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="201" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="204" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="204" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5939,7 +7153,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -6007,7 +7221,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -6066,7 +7280,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -6124,6 +7338,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>566</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -6177,6 +7394,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>567</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -6218,6 +7438,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>568</v>
+      </c>
       <c r="Q10" t="s">
         <v>477</v>
       </c>
@@ -6606,7 +7829,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>572</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>
@@ -6623,7 +7846,7 @@
         <v>280</v>
       </c>
       <c r="K26" t="s">
-        <v>492</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>111</v>
@@ -6640,7 +7863,7 @@
         <v>264</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="Y27" t="s">
         <v>112</v>
@@ -6657,7 +7880,7 @@
         <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>325</v>
@@ -6672,6 +7895,9 @@
       </c>
       <c r="G29" t="s">
         <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>113</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -53,7 +53,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1836,13 +1836,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2633,8 +2645,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="211">
+  <fills count="241">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3826,8 +3939,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5839,6 +6122,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5846,7 +6411,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6267,52 +6832,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="183" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="183" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="189" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="189" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="192" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="198" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="198" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="201" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="201" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="204" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="204" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="213" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="216" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="219" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="222" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="228" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="231" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6963,7 +7576,7 @@
         <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="E3" t="s">
         <v>507</v>
@@ -7046,7 +7659,7 @@
         <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -7129,7 +7742,7 @@
         <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E5" t="s">
         <v>508</v>
@@ -7153,7 +7766,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -7199,6 +7812,9 @@
       <c r="B6" t="s">
         <v>374</v>
       </c>
+      <c r="D6" t="s">
+        <v>539</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -7221,7 +7837,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -7280,7 +7896,7 @@
         <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -7339,7 +7955,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -7395,7 +8011,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -7439,7 +8055,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q10" t="s">
         <v>477</v>
@@ -7479,6 +8095,9 @@
       <c r="M11" t="s">
         <v>524</v>
       </c>
+      <c r="N11" t="s">
+        <v>567</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -7514,6 +8133,9 @@
       <c r="M12" t="s">
         <v>493</v>
       </c>
+      <c r="N12" t="s">
+        <v>568</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -7829,7 +8451,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Y25" t="s">
         <v>110</v>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -22,17 +22,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -47,12 +47,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4920" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1848,13 +1848,82 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2746,8 +2815,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="241">
+  <fills count="268">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4109,8 +4279,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6404,6 +6727,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6411,7 +7060,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6880,52 +7529,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="213" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="213" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="216" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="216" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="219" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="219" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="222" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="228" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="228" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="231" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="231" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="234" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="234" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="234" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="222" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="243" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="246" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="252" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="258" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="249" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="261" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="261" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7370,7 +8067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7751,10 +8448,13 @@
         <v>491</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>578</v>
       </c>
       <c r="H5" t="s">
         <v>505</v>
+      </c>
+      <c r="I5" t="s">
+        <v>583</v>
       </c>
       <c r="J5" t="s">
         <v>349</v>
@@ -7822,7 +8522,7 @@
         <v>553</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>501</v>
@@ -7884,11 +8584,14 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>497</v>
       </c>
+      <c r="J7" t="s">
+        <v>584</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -7929,7 +8632,7 @@
         <v>484</v>
       </c>
       <c r="AD7" t="s">
-        <v>230</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
@@ -7943,7 +8646,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -7985,7 +8688,7 @@
         <v>485</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9">
@@ -7999,7 +8702,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -8032,7 +8735,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>232</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10">
@@ -8043,7 +8746,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>502</v>
@@ -8073,7 +8776,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>533</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -8084,7 +8787,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -8111,7 +8814,7 @@
         <v>257</v>
       </c>
       <c r="AD11" t="s">
-        <v>541</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -8122,7 +8825,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -8131,7 +8834,7 @@
         <v>388</v>
       </c>
       <c r="M12" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="N12" t="s">
         <v>568</v>
@@ -8149,7 +8852,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>542</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -8160,7 +8863,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -8169,7 +8872,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -8184,7 +8887,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14">
@@ -8195,7 +8898,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -8204,7 +8907,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>525</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -8219,7 +8922,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15">
@@ -8230,13 +8933,13 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>558</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>549</v>
@@ -8251,7 +8954,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16">
@@ -8262,13 +8965,13 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>586</v>
       </c>
       <c r="Q16" t="s">
         <v>550</v>
@@ -8283,7 +8986,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17">
@@ -8294,11 +8997,14 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
       <c r="Y17" t="s">
         <v>551</v>
       </c>
@@ -8306,7 +9012,7 @@
         <v>515</v>
       </c>
       <c r="AD17" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18">
@@ -8317,16 +9023,19 @@
         <v>459</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>506</v>
       </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
       <c r="Y18" t="s">
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19">
@@ -8337,7 +9046,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -8346,7 +9055,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>233</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20">
@@ -8357,7 +9066,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -8366,7 +9075,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>234</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21">
@@ -8377,7 +9086,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -8386,7 +9095,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>235</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22">
@@ -8394,16 +9103,19 @@
         <v>458</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>577</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>520</v>
       </c>
       <c r="Y22" t="s">
         <v>529</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -8411,16 +9123,19 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
       </c>
       <c r="Y23" t="s">
         <v>108</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="24">
@@ -8428,16 +9143,19 @@
         <v>443</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>396</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>587</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="25">
@@ -8445,16 +9163,19 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>498</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>574</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="26">
@@ -8462,16 +9183,19 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -8479,16 +9203,19 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>492</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="28">
@@ -8496,16 +9223,16 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -8513,16 +9240,16 @@
         <v>472</v>
       </c>
       <c r="E29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -8530,713 +9257,763 @@
         <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>554</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>554</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>265</v>
-      </c>
       <c r="Y39" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
-        <v>120</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
+        <v>579</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
-        <v>489</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
-        <v>514</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>130</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
+        <v>580</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
-        <v>531</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
-        <v>387</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
-        <v>137</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>581</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>448</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>555</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="Y75" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
-        <v>519</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
+        <v>555</v>
       </c>
       <c r="Y77" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>473</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
+        <v>473</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
-        <v>503</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>582</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
-        <v>146</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
-        <v>486</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>487</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>221</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>559</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>560</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>561</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>560</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>490</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{613525CF-2010-C74F-9346-B5A3EDD0FBCF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2E78019B-17ED-D746-8945-BB4C0FB31587}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="9940" windowWidth="20480" xWindow="51200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5420"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -22,38 +22,39 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -829,9 +830,6 @@
     <t>saveAsText(pdf,destination)</t>
   </si>
   <si>
-    <t>assertNotContains(text,substring)</t>
-  </si>
-  <si>
     <t>macro(file,sheet,name)</t>
   </si>
   <si>
@@ -1123,15 +1121,9 @@
     <t>assertLocatorNotPresent(locator)</t>
   </si>
   <si>
-    <t>saveModalDialogTextByLocator(var,locater)</t>
-  </si>
-  <si>
     <t>assertAttributeContains(locator,attrName,contains)</t>
   </si>
   <si>
-    <t>assertAttributeNotContains(locator,attrName,contains)</t>
-  </si>
-  <si>
     <t>getRowCount(var)</t>
   </si>
   <si>
@@ -1202,9 +1194,6 @@
   </si>
   <si>
     <t>moveTo(var,profile,local,remote)</t>
-  </si>
-  <si>
-    <t>saveMatches(var,path,filePattern)</t>
   </si>
   <si>
     <t>scpCopyFrom(var,profile,remote,local)</t>
@@ -1834,9 +1823,6 @@
     <t>importCSV(var,csv,table)</t>
   </si>
   <si>
-    <t>writeBase64decode(encodedSource,decodedTarget)</t>
-  </si>
-  <si>
     <t>purgeQueue(profile,queue,var)</t>
   </si>
   <si>
@@ -1885,9 +1871,6 @@
     <t>assertSingleSelect(locator)</t>
   </si>
   <si>
-    <t>assertTextNotContains(locator,text)</t>
-  </si>
-  <si>
     <t>clickAll(locator)</t>
   </si>
   <si>
@@ -1916,6 +1899,39 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1939,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2029,814 +2045,6 @@
     <font>
       <name val="Tahoma"/>
       <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
       <color rgb="6E6E3C"/>
       <u val="none"/>
     </font>
@@ -2917,7 +2125,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="268">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2934,1349 +2142,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -4433,7 +2298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="259">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -4470,2262 +2335,6 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7060,7 +2669,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7193,436 +2802,52 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="37" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="43" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="44" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="72" fontId="48" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="50" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="84" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="84" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="57" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="58" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="59" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="93" fontId="60" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="96" fontId="62" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="99" fontId="63" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="64" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="66" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="108" fontId="68" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="111" fontId="69" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="114" fontId="70" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="114" fontId="71" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="72" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="73" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="74" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="75" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="123" fontId="76" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="126" fontId="78" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="129" fontId="79" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="132" fontId="80" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="138" fontId="84" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="141" fontId="85" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="144" fontId="86" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="144" fontId="87" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="88" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="89" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="90" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="153" fontId="92" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="156" fontId="94" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="159" fontId="95" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="162" fontId="96" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="168" fontId="100" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="171" fontId="101" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="102" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="174" fontId="103" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="105" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="106" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="107" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="183" fontId="108" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="186" fontId="110" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="189" fontId="111" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="192" fontId="112" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="114" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="198" fontId="116" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="201" fontId="117" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="118" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="119" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="121" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="123" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="213" fontId="124" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="216" fontId="126" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="219" fontId="127" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="128" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="130" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="228" fontId="132" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="231" fontId="133" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="234" fontId="134" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="234" fontId="135" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="136" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="237" fontId="137" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="138" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="139" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="243" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="246" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="252" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="258" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="249" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="261" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="261" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8067,9 +3292,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -8083,1937 +3308,1957 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>345</v>
-      </c>
       <c r="K1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>331</v>
-      </c>
       <c r="M1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
-        <v>562</v>
-      </c>
       <c r="O1" t="s">
-        <v>521</v>
+        <v>558</v>
       </c>
       <c r="P1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
-        <v>447</v>
-      </c>
       <c r="U1" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="V1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="W1" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="X1" t="s">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="Y1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
-        <v>472</v>
-      </c>
       <c r="AD1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" t="s">
+        <v>470</v>
+      </c>
+      <c r="O2" t="s">
+        <v>559</v>
+      </c>
+      <c r="P2" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>457</v>
+      </c>
+      <c r="R2" t="s">
+        <v>471</v>
+      </c>
+      <c r="S2" t="s">
+        <v>251</v>
+      </c>
+      <c r="T2" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" t="s">
+        <v>445</v>
+      </c>
+      <c r="V2" t="s">
+        <v>474</v>
+      </c>
+      <c r="W2" t="s">
+        <v>459</v>
+      </c>
+      <c r="X2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE2" t="s">
         <v>536</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>516</v>
-      </c>
-      <c r="K2" t="s">
-        <v>313</v>
-      </c>
-      <c r="L2" t="s">
-        <v>382</v>
-      </c>
-      <c r="M2" t="s">
-        <v>474</v>
-      </c>
-      <c r="N2" t="s">
-        <v>563</v>
-      </c>
-      <c r="O2" t="s">
-        <v>526</v>
-      </c>
-      <c r="P2" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>475</v>
-      </c>
-      <c r="R2" t="s">
-        <v>251</v>
-      </c>
-      <c r="S2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T2" t="s">
-        <v>449</v>
-      </c>
-      <c r="U2" t="s">
-        <v>478</v>
-      </c>
-      <c r="V2" t="s">
-        <v>463</v>
-      </c>
-      <c r="W2" t="s">
-        <v>379</v>
-      </c>
-      <c r="X2" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E3" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
-        <v>363</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
-        <v>522</v>
-      </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>518</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
-        <v>564</v>
-      </c>
       <c r="O3" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>476</v>
+        <v>560</v>
+      </c>
+      <c r="P3" t="s">
+        <v>523</v>
       </c>
       <c r="R3" t="s">
+        <v>472</v>
+      </c>
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
-        <v>450</v>
-      </c>
-      <c r="V3" t="s">
-        <v>464</v>
+      <c r="U3" t="s">
+        <v>446</v>
       </c>
       <c r="W3" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="X3" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="Y3" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
-        <v>362</v>
-      </c>
       <c r="AC3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
-        <v>385</v>
-      </c>
       <c r="H4" t="s">
-        <v>500</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="J4" t="s">
-        <v>348</v>
+        <v>519</v>
       </c>
       <c r="K4" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>333</v>
+        <v>603</v>
       </c>
       <c r="M4" t="s">
+        <v>332</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
-        <v>565</v>
-      </c>
       <c r="O4" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>561</v>
+      </c>
+      <c r="P4" t="s">
+        <v>524</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
-        <v>451</v>
-      </c>
-      <c r="V4" t="s">
-        <v>465</v>
+      <c r="U4" t="s">
+        <v>447</v>
       </c>
       <c r="W4" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="X4" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="Y4" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="Z4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
-        <v>481</v>
-      </c>
       <c r="AD4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E5" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="F5" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I5" t="s">
+        <v>501</v>
+      </c>
+      <c r="J5" t="s">
         <v>578</v>
       </c>
-      <c r="H5" t="s">
-        <v>505</v>
-      </c>
-      <c r="I5" t="s">
-        <v>583</v>
-      </c>
-      <c r="J5" t="s">
-        <v>349</v>
-      </c>
       <c r="K5" t="s">
-        <v>513</v>
-      </c>
-      <c r="M5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="O5" t="s">
+        <v>570</v>
+      </c>
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
-        <v>452</v>
-      </c>
-      <c r="V5" t="s">
-        <v>466</v>
+      <c r="U5" t="s">
+        <v>448</v>
       </c>
       <c r="W5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>353</v>
+        <v>462</v>
+      </c>
+      <c r="X5" t="s">
+        <v>354</v>
       </c>
       <c r="Z5" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
-        <v>482</v>
-      </c>
       <c r="AD5" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>553</v>
-      </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>549</v>
       </c>
       <c r="H6" t="s">
-        <v>501</v>
-      </c>
-      <c r="J6" t="s">
-        <v>346</v>
+        <v>333</v>
+      </c>
+      <c r="I6" t="s">
+        <v>497</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L6" t="s">
+        <v>509</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="O6" t="s">
+        <v>565</v>
+      </c>
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
-        <v>389</v>
-      </c>
       <c r="T6" t="s">
-        <v>453</v>
-      </c>
-      <c r="W6" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y6" t="s">
+        <v>385</v>
+      </c>
+      <c r="U6" t="s">
+        <v>449</v>
+      </c>
+      <c r="X6" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
-        <v>495</v>
-      </c>
       <c r="AA6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
-        <v>483</v>
-      </c>
       <c r="AD6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
-      </c>
-      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
-        <v>386</v>
-      </c>
       <c r="H7" t="s">
-        <v>497</v>
-      </c>
-      <c r="J7" t="s">
-        <v>584</v>
+        <v>382</v>
+      </c>
+      <c r="I7" t="s">
+        <v>493</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>313</v>
+        <v>579</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q7" t="s">
+        <v>312</v>
+      </c>
+      <c r="O7" t="s">
+        <v>566</v>
+      </c>
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
-        <v>462</v>
-      </c>
       <c r="T7" t="s">
-        <v>454</v>
-      </c>
-      <c r="W7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y7" t="s">
+        <v>458</v>
+      </c>
+      <c r="U7" t="s">
+        <v>450</v>
+      </c>
+      <c r="X7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
-        <v>496</v>
-      </c>
       <c r="AA7" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
-        <v>484</v>
-      </c>
       <c r="AD7" t="s">
-        <v>594</v>
+        <v>480</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" t="s">
-        <v>364</v>
+        <v>373</v>
+      </c>
+      <c r="F8" t="s">
+        <v>315</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
-      </c>
-      <c r="K8" t="s">
-        <v>556</v>
-      </c>
-      <c r="M8" t="s">
+        <v>361</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="O8" t="s">
+        <v>567</v>
+      </c>
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
-        <v>455</v>
-      </c>
-      <c r="W8" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="U8" t="s">
+        <v>451</v>
+      </c>
+      <c r="X8" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
-        <v>485</v>
-      </c>
       <c r="AD8" t="s">
-        <v>595</v>
+        <v>481</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>365</v>
-      </c>
       <c r="H9" t="s">
-        <v>327</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" t="s">
+        <v>552</v>
+      </c>
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="O9" t="s">
+        <v>571</v>
+      </c>
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
-        <v>456</v>
-      </c>
-      <c r="W9" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="U9" t="s">
+        <v>452</v>
+      </c>
+      <c r="X9" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
-        <v>596</v>
+      <c r="AE9" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
-        <v>313</v>
-      </c>
-      <c r="G10" t="s">
-        <v>304</v>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>502</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>477</v>
+      <c r="O10" t="s">
+        <v>562</v>
       </c>
       <c r="R10" t="s">
+        <v>473</v>
+      </c>
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="U10" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
-        <v>350</v>
+        <v>344</v>
+      </c>
+      <c r="F11" t="s">
+        <v>596</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
-      </c>
-      <c r="K11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M11" t="s">
-        <v>524</v>
+        <v>349</v>
+      </c>
+      <c r="I11" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q11" t="s">
+        <v>520</v>
+      </c>
+      <c r="O11" t="s">
+        <v>563</v>
+      </c>
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G12" t="s">
-        <v>272</v>
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K12" t="s">
-        <v>388</v>
-      </c>
-      <c r="M12" t="s">
-        <v>585</v>
+        <v>271</v>
+      </c>
+      <c r="I12" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" t="s">
+        <v>553</v>
       </c>
       <c r="N12" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q12" t="s">
+        <v>580</v>
+      </c>
+      <c r="O12" t="s">
+        <v>564</v>
+      </c>
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G13" t="s">
-        <v>261</v>
+        <v>330</v>
+      </c>
+      <c r="F13" t="s">
+        <v>338</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" t="s">
+        <v>384</v>
+      </c>
+      <c r="N13" t="s">
+        <v>489</v>
+      </c>
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="Z13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
-        <v>533</v>
+      <c r="AE13" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>562</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
-        <v>314</v>
-      </c>
       <c r="H14" t="s">
-        <v>323</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" t="s">
+        <v>322</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>521</v>
+      </c>
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
-        <v>541</v>
+      <c r="AE14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>521</v>
-      </c>
-      <c r="E15" t="s">
+        <v>558</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
-        <v>262</v>
-      </c>
-      <c r="K15" t="s">
-        <v>558</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="H15" t="s">
+        <v>261</v>
+      </c>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
-        <v>549</v>
-      </c>
       <c r="R15" t="s">
+        <v>545</v>
+      </c>
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
-        <v>542</v>
+      <c r="AE15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
-        <v>383</v>
-      </c>
-      <c r="G16" t="s">
-        <v>263</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>550</v>
+        <v>517</v>
+      </c>
+      <c r="F16" t="s">
+        <v>379</v>
+      </c>
+      <c r="H16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" t="s">
+        <v>554</v>
+      </c>
+      <c r="N16" t="s">
+        <v>581</v>
       </c>
       <c r="R16" t="s">
+        <v>546</v>
+      </c>
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
-        <v>546</v>
+      <c r="AE16" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>380</v>
+      </c>
+      <c r="H17" t="s">
+        <v>314</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
-        <v>551</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>515</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="Z17" t="s">
         <v>547</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
-        <v>459</v>
-      </c>
-      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>455</v>
+      </c>
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
-        <v>506</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
-        <v>534</v>
+      <c r="AE18" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
+        <v>602</v>
+      </c>
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
-        <v>543</v>
+      <c r="AE19" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>447</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
-        <v>544</v>
+      <c r="AE20" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>471</v>
-      </c>
-      <c r="E21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G21" t="s">
-        <v>295</v>
-      </c>
-      <c r="K21" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
-        <v>548</v>
+      <c r="AE21" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>458</v>
-      </c>
-      <c r="E22" t="s">
-        <v>577</v>
-      </c>
-      <c r="G22" t="s">
-        <v>296</v>
-      </c>
-      <c r="K22" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" t="s">
+        <v>598</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>297</v>
-      </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23" t="s">
+        <v>572</v>
+      </c>
+      <c r="H23" t="s">
+        <v>296</v>
+      </c>
+      <c r="L23" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
-        <v>597</v>
+      <c r="AE23" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>443</v>
-      </c>
-      <c r="E24" t="s">
-        <v>319</v>
-      </c>
-      <c r="G24" t="s">
-        <v>288</v>
-      </c>
-      <c r="K24" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>587</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>598</v>
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>287</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>277</v>
-      </c>
-      <c r="K25" t="s">
-        <v>574</v>
-      </c>
-      <c r="Y25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" t="s">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
-        <v>599</v>
+      <c r="AE25" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>498</v>
-      </c>
-      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" t="s">
-        <v>280</v>
-      </c>
-      <c r="K27" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>494</v>
+      </c>
+      <c r="H27" t="s">
+        <v>279</v>
+      </c>
+      <c r="L27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>472</v>
-      </c>
-      <c r="E29" t="s">
-        <v>517</v>
-      </c>
-      <c r="G29" t="s">
-        <v>281</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>325</v>
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>468</v>
+      </c>
+      <c r="F30" t="s">
+        <v>513</v>
+      </c>
+      <c r="H30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
-        <v>518</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" t="s">
+        <v>514</v>
+      </c>
+      <c r="H31" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>470</v>
-      </c>
-      <c r="G31" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="Z33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="H43" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="H45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="H46" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="H47" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="H48" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="H50" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="H51" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="H52" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="H53" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="H54" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="H55" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="H57" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="H58" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="H59" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="H60" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="H61" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="H62" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="H63" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="H64" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="H67" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="H68" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="H70" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="H71" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="H72" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="H73" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="H74" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="H75" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="H76" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="H77" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="H78" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="H79" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="H80" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="H81" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="H82" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="H83" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="H84" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="H85" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="H86" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="G41" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="G42" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="G43" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="G44" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="G45" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="G46" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="G47" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="G48" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="G49" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="G50" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="G51" t="s">
+      <c r="Z87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="H88" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="H89" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="H90" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="H91" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="H92" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="H93" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="G52" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="G53" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="G54" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="G55" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="G56" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="G57" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="G58" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="G59" t="s">
-        <v>580</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="G60" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="G61" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="G62" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="G63" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="G64" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="G65" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="G66" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="G67" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="G68" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="G69" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="G70" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="G71" t="s">
-        <v>581</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="G72" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="G73" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="G74" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="G75" t="s">
-        <v>448</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="G76" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="G77" t="s">
+      <c r="Z96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="H97" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="H98" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Z100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Z101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="Z102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="Z103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="Z104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="Z105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="Z106" t="s">
         <v>555</v>
       </c>
-      <c r="Y77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="G78" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="G79" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="G80" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="G81" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="G82" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="G83" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="G84" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="G85" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="G86" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="G87" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="G88" t="s">
-        <v>582</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="G90" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="G91" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="G92" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="G93" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="G94" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="G95" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="G96" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="G97" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="G98" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y98" t="s">
+    </row>
+    <row r="107">
+      <c r="Z107" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="Z111" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="Z112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="Z113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="Z114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="Z115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="Z116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="Z117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="Z118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="Z119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Z120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="Z121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="Z122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Z123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="Z124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="Z125" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="Y100" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="Y101" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="Y102" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="Y103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="Y104" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="Y105" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="Y106" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="Y107" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="Y108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="Y109" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="Y110" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="Y111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="Y112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="Y113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="Y114" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="Y115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="Y116" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="Y117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="Y118" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="Y119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="Y120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="Y121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="Y122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="Y123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="Y124" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
-        <v>593</v>
-      </c>
-    </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>
@@ -10026,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="B1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="4"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -10063,10 +5308,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -10092,7 +5337,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -10165,10 +5410,10 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>57</v>
@@ -10177,13 +5422,13 @@
         <v>183</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -10197,7 +5442,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>13</v>
@@ -10206,7 +5451,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -10222,7 +5467,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>57</v>
@@ -10231,10 +5476,10 @@
         <v>181</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -10253,16 +5498,16 @@
         <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -10280,13 +5525,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>253</v>
+        <v>596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -10301,7 +5546,7 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>52</v>
@@ -10310,10 +5555,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -10328,7 +5573,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>52</v>
@@ -10337,10 +5582,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -10362,10 +5607,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -10380,7 +5625,7 @@
     <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -10389,7 +5634,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -10412,10 +5657,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -10434,13 +5679,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -10455,7 +5700,7 @@
     <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -10464,7 +5709,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -10484,10 +5729,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -10504,13 +5749,13 @@
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -21620,7 +16865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6FA3C-2CC0-E942-9A15-8683ABE6A7E7}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -21657,10 +16902,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
@@ -21759,10 +17004,10 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>57</v>
@@ -21771,10 +17016,10 @@
         <v>185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -21789,7 +17034,7 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>57</v>
@@ -21798,10 +17043,10 @@
         <v>185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -21816,7 +17061,7 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>57</v>
@@ -21825,10 +17070,10 @@
         <v>185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -21843,7 +17088,7 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>57</v>
@@ -21852,10 +17097,10 @@
         <v>185</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -21869,10 +17114,10 @@
     </row>
     <row customHeight="1" ht="81" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>57</v>
@@ -21881,13 +17126,13 @@
         <v>190</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -21905,16 +17150,16 @@
         <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -21935,10 +17180,10 @@
         <v>27</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -21953,7 +17198,7 @@
     <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
@@ -21962,10 +17207,10 @@
         <v>27</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -38316,7 +33561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA0747-1280-7544-A746-34C71C19E846}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -38353,10 +33598,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
@@ -38455,10 +33700,10 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>57</v>
@@ -38467,10 +33712,10 @@
         <v>185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -38484,10 +33729,10 @@
     </row>
     <row ht="48" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>57</v>
@@ -38496,13 +33741,13 @@
         <v>190</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -38523,10 +33768,10 @@
         <v>181</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -38545,13 +33790,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="7"/>
@@ -38566,16 +33811,16 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{2E78019B-17ED-D746-8945-BB4C0FB31587}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21140" windowWidth="25600" xWindow="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21140"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -23,13 +23,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -49,7 +49,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1933,13 +1933,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2124,8 +2133,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2297,8 +2508,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -2662,6 +3179,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2669,7 +3838,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2802,52 +3971,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3292,9 +4557,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3758,6 +5023,9 @@
       <c r="I6" t="s">
         <v>497</v>
       </c>
+      <c r="J6" t="s">
+        <v>605</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
@@ -4274,7 +5542,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>602</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -4294,7 +5562,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4314,7 +5582,7 @@
         <v>443</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4334,7 +5602,7 @@
         <v>467</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>572</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4354,7 +5622,7 @@
         <v>454</v>
       </c>
       <c r="F23" t="s">
-        <v>572</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4374,7 +5642,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4394,7 +5662,7 @@
         <v>439</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4414,7 +5682,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>494</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -4434,7 +5702,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>494</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4454,7 +5722,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4471,7 +5739,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>513</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4488,7 +5756,7 @@
         <v>468</v>
       </c>
       <c r="F30" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4505,7 +5773,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4516,7 +5784,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>466</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -4527,7 +5795,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -4538,7 +5806,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>550</v>
@@ -4549,7 +5817,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -4560,7 +5828,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -4571,7 +5839,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -4582,7 +5850,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -4593,7 +5861,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -4603,9 +5871,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -5079,186 +6344,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>483</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>555</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>601</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>377</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>486</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>587</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>
@@ -16865,7 +18140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6FA3C-2CC0-E942-9A15-8683ABE6A7E7}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -33561,7 +34836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA0747-1280-7544-A746-34C71C19E846}">
   <dimension ref="A1:P995"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1948,7 +1948,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2335,8 +2335,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2814,8 +2915,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3831,6 +4085,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3838,7 +4418,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4067,52 +4647,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/ws-02.xlsx
+++ b/artifact/script/ws-02.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4147" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1948,7 +1948,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2436,8 +2436,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3068,8 +3270,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4411,6 +4919,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4418,7 +5578,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4695,52 +5855,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
